--- a/exampleProblems/glycidyl_methacrylate/glycidyl_methacrylate.xlsx
+++ b/exampleProblems/glycidyl_methacrylate/glycidyl_methacrylate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dch1amk/Dropbox/liquidNMRinterpretation/AlanKenwright/2022/exampleProblems/glycidyl_methacrylate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/glycidyl_methacrylate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA2E4E9-7A24-954F-B6F7-FDE4F901B563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE93D9B-F68D-1645-AB2D-2A59AF09B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19680" yWindow="460" windowWidth="27760" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -654,7 +654,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -694,25 +694,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9">
-        <v>1.73</v>
+        <v>5.92</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E2" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>28</v>
@@ -723,13 +723,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9">
-        <v>3.01</v>
+        <v>5.39</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9">
         <v>1</v>
@@ -738,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>28</v>
@@ -752,13 +752,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4" s="9">
-        <v>2.61</v>
+        <v>4.25</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>44</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>28</v>
@@ -781,13 +781,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9">
-        <v>2.44</v>
+        <v>3.76</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="9">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>44</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>28</v>
@@ -810,13 +810,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9">
-        <v>3.76</v>
+        <v>3.01</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>28</v>
@@ -839,13 +839,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9">
-        <v>4.25</v>
+        <v>2.61</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>28</v>
@@ -868,13 +868,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C8" s="9">
-        <v>5.39</v>
+        <v>2.44</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
@@ -883,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>28</v>
@@ -897,25 +897,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9">
-        <v>5.92</v>
+        <v>1.73</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E9" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>28</v>
@@ -929,10 +929,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1221,14 +1221,31 @@
     <row r="10" spans="1:13">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="14" spans="1:13">
+    <row r="11" spans="1:13" ht="17">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="17">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="17">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="17">
+      <c r="B14" s="9"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="17">
+      <c r="B15" s="9"/>
       <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="17">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="2:2" ht="17">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="2:2" ht="17">
+      <c r="B18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2086,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -2729,10 +2746,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2769,16 +2786,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="C2" s="10">
-        <v>22019.5</v>
+        <v>8008.6</v>
       </c>
       <c r="D2" s="10">
-        <v>90.19</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E2" s="10">
-        <v>18317812.75</v>
+        <v>303537.15000000002</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>16</v>
@@ -2786,24 +2803,22 @@
       <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="C3" s="10">
-        <v>23119.1</v>
+        <v>9431.9</v>
       </c>
       <c r="D3" s="10">
-        <v>3.73</v>
+        <v>2.52</v>
       </c>
       <c r="E3" s="10">
-        <v>795298.42</v>
+        <v>219086.24</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>16</v>
@@ -2811,24 +2826,22 @@
       <c r="G3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="C4" s="10">
-        <v>20318.400000000001</v>
+        <v>15522.6</v>
       </c>
       <c r="D4" s="10">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="E4" s="10">
-        <v>490193.97</v>
+        <v>250026.6</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>16</v>
@@ -2836,8 +2849,6 @@
       <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="17">
       <c r="A5" s="10">
@@ -2861,24 +2872,22 @@
       <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="C6" s="10">
-        <v>8008.6</v>
+        <v>22019.5</v>
       </c>
       <c r="D6" s="10">
-        <v>4.1100000000000003</v>
+        <v>90.19</v>
       </c>
       <c r="E6" s="10">
-        <v>303537.15000000002</v>
+        <v>18317812.75</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>16</v>
@@ -2886,24 +2895,22 @@
       <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="C7" s="10">
-        <v>15522.6</v>
+        <v>23119.1</v>
       </c>
       <c r="D7" s="10">
-        <v>1.75</v>
+        <v>3.73</v>
       </c>
       <c r="E7" s="10">
-        <v>250026.6</v>
+        <v>795298.42</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>16</v>
@@ -2911,24 +2918,22 @@
       <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10">
-        <v>9431.9</v>
+        <v>20318.400000000001</v>
       </c>
       <c r="D8" s="10">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="E8" s="10">
-        <v>219086.24</v>
+        <v>490193.97</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>16</v>
@@ -2936,8 +2941,34 @@
       <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="17">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="17">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="17">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="17">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="17">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="17">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="17">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2950,7 +2981,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I9"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2986,8 +3017,8 @@
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>5.91</v>
+      <c r="B2" s="9">
+        <v>5.92</v>
       </c>
       <c r="C2" s="10">
         <v>33.9</v>
@@ -3011,8 +3042,8 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <v>5.38</v>
+      <c r="B3" s="9">
+        <v>5.39</v>
       </c>
       <c r="C3" s="10">
         <v>35</v>
@@ -3036,8 +3067,8 @@
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>4.24</v>
+      <c r="B4" s="9">
+        <v>4.25</v>
       </c>
       <c r="C4" s="10">
         <v>34.299999999999997</v>
@@ -3061,8 +3092,8 @@
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
-        <v>3.75</v>
+      <c r="B5" s="9">
+        <v>3.76</v>
       </c>
       <c r="C5" s="10">
         <v>23.7</v>
@@ -3086,8 +3117,8 @@
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
-        <v>3</v>
+      <c r="B6" s="9">
+        <v>3.01</v>
       </c>
       <c r="C6" s="10">
         <v>15.3</v>
@@ -3111,8 +3142,8 @@
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
-        <v>2.6</v>
+      <c r="B7" s="9">
+        <v>2.61</v>
       </c>
       <c r="C7" s="10">
         <v>28.2</v>
@@ -3136,8 +3167,8 @@
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
-        <v>2.42</v>
+      <c r="B8" s="9">
+        <v>2.44</v>
       </c>
       <c r="C8" s="10">
         <v>27.2</v>
@@ -3161,8 +3192,8 @@
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
-        <v>1.72</v>
+      <c r="B9" s="9">
+        <v>1.73</v>
       </c>
       <c r="C9" s="10">
         <v>94.7</v>

--- a/exampleProblems/glycidyl_methacrylate/glycidyl_methacrylate.xlsx
+++ b/exampleProblems/glycidyl_methacrylate/glycidyl_methacrylate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/glycidyl_methacrylate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE93D9B-F68D-1645-AB2D-2A59AF09B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{CDE93D9B-F68D-1645-AB2D-2A59AF09B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{310A1178-00E5-480A-BA53-B7B5E3258883}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>2.61, 3.14, 4.09, 6.29</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>C=C(C)C(=O)OCC1CC1</t>
   </si>
 </sst>
 </file>
@@ -623,25 +629,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -657,12 +673,12 @@
       <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -689,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -718,7 +734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -747,7 +763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -776,7 +792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -805,7 +821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -834,7 +850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -863,7 +879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -892,7 +908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -935,9 +951,9 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:13" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -970,7 +986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17">
+    <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1001,7 +1017,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="17">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1032,7 +1048,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="17">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1063,7 +1079,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:13" ht="17">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1094,7 +1110,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="17">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1125,7 +1141,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="17">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1156,7 +1172,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="17">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1187,7 +1203,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="17">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1221,30 +1237,30 @@
     <row r="10" spans="1:13">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="17">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="17">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="17">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="17">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="B14" s="9"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="17">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="B15" s="9"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="17">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:2" ht="17">
+    <row r="17" spans="2:2" ht="16.5">
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="2:2" ht="17">
+    <row r="18" spans="2:2" ht="16.5">
       <c r="B18" s="9"/>
     </row>
   </sheetData>
@@ -1261,9 +1277,9 @@
       <selection sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -1307,7 +1323,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1340,7 +1356,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1373,7 +1389,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" ht="17">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1406,7 +1422,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1439,7 +1455,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" ht="17">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1472,7 +1488,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="17">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1505,7 +1521,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1538,7 +1554,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" ht="17">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1571,7 +1587,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" ht="17">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1604,7 +1620,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1637,7 +1653,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="17">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1670,7 +1686,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" ht="17">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1703,7 +1719,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" ht="17">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1736,7 +1752,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" ht="17">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1769,7 +1785,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" ht="17">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1802,7 +1818,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" ht="17">
+    <row r="17" spans="1:22" ht="16.5">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1835,7 +1851,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="8"/>
     </row>
-    <row r="18" spans="1:22" ht="17">
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1876,7 +1892,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="8"/>
     </row>
-    <row r="19" spans="1:22" ht="17">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1907,7 +1923,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:22" ht="17">
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1938,7 +1954,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:22" ht="17">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1969,7 +1985,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:22" ht="17">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -2000,7 +2016,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:22" ht="17">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2031,7 +2047,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:22" ht="17">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -2062,7 +2078,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:22" ht="17">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -2107,9 +2123,9 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -2142,7 +2158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2173,7 +2189,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2204,7 +2220,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2235,7 +2251,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2266,7 +2282,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2297,7 +2313,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2328,7 +2344,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2359,7 +2375,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="17">
+    <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2390,7 +2406,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2421,7 +2437,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2748,13 +2764,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -2781,7 +2797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2804,7 +2820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2827,7 +2843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2850,7 +2866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2873,7 +2889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2896,7 +2912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2919,7 +2935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2942,31 +2958,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
@@ -2984,9 +3000,9 @@
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -3013,7 +3029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3038,7 +3054,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3063,7 +3079,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3088,7 +3104,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3113,7 +3129,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3138,7 +3154,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3163,7 +3179,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -3188,7 +3204,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -3219,9 +3235,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3442,27 +3461,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3487,9 +3494,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/glycidyl_methacrylate/glycidyl_methacrylate.xlsx
+++ b/exampleProblems/glycidyl_methacrylate/glycidyl_methacrylate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/glycidyl_methacrylate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{CDE93D9B-F68D-1645-AB2D-2A59AF09B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{310A1178-00E5-480A-BA53-B7B5E3258883}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{CDE93D9B-F68D-1645-AB2D-2A59AF09B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E4BB3D-77A8-4BD9-9E96-2E653F425152}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="1650" windowWidth="23880" windowHeight="13620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="10" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -631,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -947,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1152,7 +1153,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="10">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="E7" s="10">
         <v>12.19</v>
@@ -1183,7 +1184,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="10">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="E8" s="10">
         <v>11.91</v>
@@ -1274,7 +1275,7 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K25"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3228,6 +3229,54 @@
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8783E73C-9747-0F44-8013-7CFCE9E76D57}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3496,16 +3545,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/glycidyl_methacrylate/glycidyl_methacrylate.xlsx
+++ b/exampleProblems/glycidyl_methacrylate/glycidyl_methacrylate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9" documentId="8_{CDE93D9B-F68D-1645-AB2D-2A59AF09B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E4BB3D-77A8-4BD9-9E96-2E653F425152}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="1650" windowWidth="23880" windowHeight="13620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="1660" windowWidth="23880" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -632,14 +632,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -674,12 +674,12 @@
       <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -735,7 +735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -764,7 +764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -822,7 +822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -851,7 +851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -880,7 +880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -909,7 +909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -948,13 +948,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -987,7 +987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5">
+    <row r="2" spans="1:13" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1238,30 +1238,30 @@
     <row r="10" spans="1:13">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="17">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="17">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="17">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="17">
       <c r="B14" s="9"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="17">
       <c r="B15" s="9"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="17">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:2" ht="16.5">
+    <row r="17" spans="2:2" ht="17">
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="2:2" ht="16.5">
+    <row r="18" spans="2:2" ht="17">
       <c r="B18" s="9"/>
     </row>
   </sheetData>
@@ -1278,9 +1278,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5">
+    <row r="1" spans="1:22" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -1324,7 +1324,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="16.5">
+    <row r="2" spans="1:22" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
+    <row r="3" spans="1:22" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5">
+    <row r="4" spans="1:22" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
+    <row r="5" spans="1:22" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5">
+    <row r="6" spans="1:22" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
+    <row r="7" spans="1:22" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:22" ht="17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5">
+    <row r="10" spans="1:22" ht="17">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
+    <row r="11" spans="1:22" ht="17">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5">
+    <row r="12" spans="1:22" ht="17">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
+    <row r="13" spans="1:22" ht="17">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
+    <row r="14" spans="1:22" ht="17">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
+    <row r="15" spans="1:22" ht="17">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5">
+    <row r="16" spans="1:22" ht="17">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" ht="16.5">
+    <row r="17" spans="1:22" ht="17">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="8"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5">
+    <row r="18" spans="1:22" ht="17">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="8"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5">
+    <row r="19" spans="1:22" ht="17">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1924,7 +1924,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5">
+    <row r="20" spans="1:22" ht="17">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5">
+    <row r="21" spans="1:22" ht="17">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5">
+    <row r="22" spans="1:22" ht="17">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5">
+    <row r="23" spans="1:22" ht="17">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5">
+    <row r="24" spans="1:22" ht="17">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5">
+    <row r="25" spans="1:22" ht="17">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -2124,9 +2124,9 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -2159,7 +2159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2769,9 +2769,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -2798,7 +2798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2959,31 +2959,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:9" ht="17">
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="17">
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="17">
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
@@ -3001,9 +3001,9 @@
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -3030,7 +3030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3055,7 +3055,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -3205,7 +3205,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -3243,9 +3243,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -3284,15 +3284,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3509,6 +3500,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3516,14 +3516,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3542,19 +3534,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>